--- a/F20_emplazamientos.xlsx
+++ b/F20_emplazamientos.xlsx
@@ -3042,28 +3042,28 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>286.0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.4256</v>
       </c>
       <c r="M2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O2" t="n">
         <v>2.0</v>
@@ -3092,22 +3092,22 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
         <v>81.0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.1205</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -3148,16 +3148,16 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>97.0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.1443</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -3198,16 +3198,16 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
         <v>53.0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.0789</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
@@ -3248,22 +3248,22 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
         <v>155.0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>0.2307</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.0</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
@@ -3353,28 +3353,28 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
         <v>50.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>0.431</v>
       </c>
       <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>45.0</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.1661</v>
       </c>
       <c r="O2" t="n">
         <v>24.0</v>
@@ -3394,37 +3394,37 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>0.0011</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1.0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>12.0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>31.0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0443</v>
       </c>
       <c r="O3" t="n">
         <v>31.0</v>
@@ -3453,28 +3453,28 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
         <v>28.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J4" t="n">
-        <v>0.0</v>
+        <v>0.2414</v>
       </c>
       <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
         <v>169.0</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>241.0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.6236</v>
       </c>
       <c r="O4" t="n">
         <v>241.0</v>
@@ -3494,37 +3494,37 @@
         <v>13.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>0.0148</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="I5" t="n">
         <v>16.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>0.1379</v>
       </c>
       <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
         <v>11.0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>737.0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0406</v>
       </c>
       <c r="O5" t="n">
         <v>737.0</v>
@@ -3544,19 +3544,19 @@
         <v>143.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>0.1627</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
         <v>2.0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>0.1538</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -3565,7 +3565,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
@@ -3574,7 +3574,7 @@
         <v>1.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0037</v>
       </c>
       <c r="O6" t="n">
         <v>1.0</v>
@@ -3597,22 +3597,22 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>4.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0.3077</v>
+      </c>
+      <c r="I7" t="n">
         <v>18.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>0.1552</v>
       </c>
       <c r="K7" t="n">
         <v>0.0</v>
@@ -3621,7 +3621,7 @@
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>170.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3647,16 +3647,16 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>4.0</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0.3077</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -3665,16 +3665,16 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>33.0</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>42.0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0.1218</v>
       </c>
       <c r="O8" t="n">
         <v>42.0</v>
@@ -3694,7 +3694,7 @@
         <v>722.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>0.8214</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -3721,7 +3721,7 @@
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>387.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>

--- a/F20_emplazamientos.xlsx
+++ b/F20_emplazamientos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
   <si>
     <t>barrio</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Inst. Edu. Jorge Éliecer Gaitan</t>
+  </si>
+  <si>
+    <t>institucion</t>
+  </si>
+  <si>
+    <t>corredor</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2363,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2699,7 +2705,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
